--- a/Reports/MarketBeatRank/2019/T_INV19_LARGE/ZUO.xlsx
+++ b/Reports/MarketBeatRank/2019/T_INV19_LARGE/ZUO.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/i852841/_Codes/_Personal/StockRankingCrawler/Reports/MarketBeatRank/2019/T_INV19_LARGE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D9A927-719A-3A49-BFFB-95428F22072A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{33D9A927-719A-3A49-BFFB-95428F22072A}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="19480" windowWidth="33600" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="460"/>
   </bookViews>
   <sheets>
-    <sheet name="2019" sheetId="1" r:id="rId1"/>
+    <sheet name="2019" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3959" uniqueCount="52">
   <si>
     <t>Needham &amp; Company LLC</t>
   </si>
@@ -140,12 +140,49 @@
   </si>
   <si>
     <t>6/8/2019,Downgrades,Buy -&gt; Hold,</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Jun_16</t>
+  </si>
+  <si>
+    <t>Jun_24</t>
+  </si>
+  <si>
+    <t>Jun_30</t>
+  </si>
+  <si>
+    <t>Jul_07</t>
+  </si>
+  <si>
+    <t>7/6/2019,Upgrades,Hold -&gt; Buy,</t>
+  </si>
+  <si>
+    <t>Jul_17</t>
+  </si>
+  <si>
+    <t>Jul_23</t>
+  </si>
+  <si>
+    <t>Aug_04</t>
+  </si>
+  <si>
+    <t>Aug_25</t>
+  </si>
+  <si>
+    <t>Sep_08</t>
+  </si>
+  <si>
+    <t>9/8/2019,Downgrades,Hold -&gt; Sell,</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -155,12 +192,32 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="45"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -178,21 +235,309 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+  <cellXfs count="294">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyFill="true" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -209,10 +554,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -247,7 +592,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -299,7 +644,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -410,21 +755,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -441,7 +786,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -493,14 +838,14 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -509,16 +854,52 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="28.33203125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="45.33203125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="C1" t="s">
+      <c r="L1" s="0" t="s">
         <v>33</v>
       </c>
     </row>
@@ -529,7 +910,34 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>34</v>
       </c>
     </row>
@@ -540,7 +948,34 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -551,7 +986,34 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -559,10 +1021,37 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="265" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C5" t="s">
+      <c r="L5" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -573,7 +1062,34 @@
       <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -584,7 +1100,34 @@
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -595,7 +1138,34 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -606,7 +1176,34 @@
       <c r="B9" t="s">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L9" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -617,7 +1214,34 @@
       <c r="B10" t="s">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -628,7 +1252,34 @@
       <c r="B11" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -639,7 +1290,34 @@
       <c r="B12" t="s">
         <v>1</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -650,7 +1328,34 @@
       <c r="B13" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="4" t="s">
         <v>37</v>
       </c>
     </row>
@@ -661,7 +1366,34 @@
       <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L14" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -672,7 +1404,34 @@
       <c r="B15" t="s">
         <v>1</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L15" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -683,7 +1442,34 @@
       <c r="B16" t="s">
         <v>1</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -694,7 +1480,34 @@
       <c r="B17" t="s">
         <v>1</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L17" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -705,7 +1518,34 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -716,7 +1556,34 @@
       <c r="B19" t="s">
         <v>1</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L19" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -727,7 +1594,34 @@
       <c r="B20" t="s">
         <v>1</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -738,7 +1632,34 @@
       <c r="B21" t="s">
         <v>1</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -749,7 +1670,34 @@
       <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K22" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -760,7 +1708,34 @@
       <c r="B23" t="s">
         <v>1</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -771,7 +1746,34 @@
       <c r="B24" t="s">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -782,7 +1784,34 @@
       <c r="B25" t="s">
         <v>1</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -793,7 +1822,34 @@
       <c r="B26" t="s">
         <v>1</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -804,7 +1860,34 @@
       <c r="B27" t="s">
         <v>1</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -815,7 +1898,34 @@
       <c r="B28" t="s">
         <v>1</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -826,7 +1936,34 @@
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -837,7 +1974,34 @@
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L30" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -848,7 +2012,34 @@
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K31" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -859,7 +2050,34 @@
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L32" s="0" t="s">
         <v>1</v>
       </c>
     </row>
@@ -870,11 +2088,38 @@
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="F33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="H33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="I33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="J33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="K33" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="L33" s="0" t="s">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>